--- a/assets/disciplinas/LOT2039.xlsx
+++ b/assets/disciplinas/LOT2039.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Introdução à ciências da química da madeira e de outros materiais lignocelulósicos para estudantes do Curso de Engenharia Bioquímica.</t>
+    <t>3380737 - Flávio Teixeira da Silva</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>3380737 - Flávio Teixeira da Silva</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Estrutura e ultraestrutura dos materiais lignocelulósicos, celulose, hemiceluloses e outras polioses. Lignina, extrativos e composição da casca. Reações em meio ácido, meio alcalino. Composição e análise química de madeiras.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,9 +94,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Estrutura e ultraestrutura dos materiais lignocelulósicos: aspectos anatômicos; ultraestrutura da parede celular; elementos funcionais do sistema condutor.2. Celulose: ocorrência; propriedades moleculares; constituição e configuração; celulose em solução, comprimento de cadeia, massa molar, pontes de hidrogênio; estrutura supramolecular; estrutura cristalina; estrutura fibrilar.3. Hemiceluloses e outras polioses: natureza e classificação; xilanas de madeiras de folhosas e coníferas; xilanas de outras plantas; estrutura supramolecular; mananas de madeiras folhosas e coníferas; outras mananas; glucanas; galactanas e pectinas.4. Lignina: significância e ocorrência; lignificação da célula; síntese de unidades monoméricas; formação da macromolécula de lignina; aspectos da deposição e diferenciação da parede celular; estrutura e constituição; modelos e heterogeneidade; caracterização e propriedades, composição química e massa molar; comportamento no UV e no infravermelho; complexos lignina-carboidratos.5. Extrativos: importância; extrativos de madeiras de folhosas e coníferas; terpenos, graxas, fenóis, taninos, flavonóides, etc; componentes inorgânicos.6. Composição da casca: anatomia; composição química; análise geral; celulose, polioses, lignina, polifenóis, suberina e extrativos; componentes inorgânicos.7. Reações em meio ácido: aspectos gerais, reações dos polissacarídeos, hidrólise, desidratação, oxidação; reações da lignina; solvólise.8. Reações em meio alcalino: reações dos polissacarídeos, hidrólise, degradação oxidativa, hidrogenação de açúcares; reações da lignina; degradações oxidativas seletivas e suaves; hidrogenólise.9. Composição química e análise da madeira: tipos de compostos; macromoléculas e substâncias e baixa massa molar; análise da madeira, amostragem e determinação de inorgânicos e extrativos; preparação de holocelulose; isolação e determinação de celulose, polioses e lignina.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,10 +106,13 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>A avaliação será feita por duas provas (P1 e P2).</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota final (NF) será calculada atribuindo-se peso um para a primeira avaliação e peso dois para a segunda avaliação do semestre.
@@ -123,19 +120,10 @@
 Será considerado aprovado o aluno com NF&gt;= 5,0 e 70% de freqüência no curso.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será feita por meio de uma prova (PR) para alunos que tenham NF maior ou igual a 3,0 e menor do que 5,0. A nota de recuperação (NR) será calculada pela média simples entre a nota final (NF) e a prova de recuperação (PR). Será considerado aprovado o aluno com NR maior ou igual a 5,0</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. LEWIN, M., GOLDSTEIN, I.S. Wood. Structure and Composition, New York: Marcel Dekker, 1991.
-2. FENGEL, D., WEGENER, G. Wood. Chemistry, Ultrastructure, Reactions, Berlin: Walter de Gruyter, 1989.
-3. HON, D.N.-S. Chemical Modification of Lignocellulosic Materials, New York: Marcel Dekker, 1996.
-4. EK, M., GELLERSTEDT, G., HENRIKSSON G. Wood Chemistry and Wood Biotechnology (Volume 1); Pulping Chemistry and Technology (Volume 2). Berlin: Walter de Gruyter, 2009.</t>
   </si>
 </sst>
 </file>
@@ -491,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,34 +604,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -657,64 +648,53 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOT2039.xlsx
+++ b/assets/disciplinas/LOT2039.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Introdução à ciências da química da madeira e de outros materiais lignocelulósicos para estudantes do Curso de Engenharia Bioquímica.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>3380737 - Flávio Teixeira da Silva</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Estrutura e ultraestrutura dos materiais lignocelulósicos, celulose, hemiceluloses e outras polioses. Lignina, extrativos e composição da casca. Reações em meio ácido, meio alcalino. Composição e análise química de madeiras.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,6 +97,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Estrutura e ultraestrutura dos materiais lignocelulósicos: aspectos anatômicos; ultraestrutura da parede celular; elementos funcionais do sistema condutor.2. Celulose: ocorrência; propriedades moleculares; constituição e configuração; celulose em solução, comprimento de cadeia, massa molar, pontes de hidrogênio; estrutura supramolecular; estrutura cristalina; estrutura fibrilar.3. Hemiceluloses e outras polioses: natureza e classificação; xilanas de madeiras de folhosas e coníferas; xilanas de outras plantas; estrutura supramolecular; mananas de madeiras folhosas e coníferas; outras mananas; glucanas; galactanas e pectinas.4. Lignina: significância e ocorrência; lignificação da célula; síntese de unidades monoméricas; formação da macromolécula de lignina; aspectos da deposição e diferenciação da parede celular; estrutura e constituição; modelos e heterogeneidade; caracterização e propriedades, composição química e massa molar; comportamento no UV e no infravermelho; complexos lignina-carboidratos.5. Extrativos: importância; extrativos de madeiras de folhosas e coníferas; terpenos, graxas, fenóis, taninos, flavonóides, etc; componentes inorgânicos.6. Composição da casca: anatomia; composição química; análise geral; celulose, polioses, lignina, polifenóis, suberina e extrativos; componentes inorgânicos.7. Reações em meio ácido: aspectos gerais, reações dos polissacarídeos, hidrólise, desidratação, oxidação; reações da lignina; solvólise.8. Reações em meio alcalino: reações dos polissacarídeos, hidrólise, degradação oxidativa, hidrogenação de açúcares; reações da lignina; degradações oxidativas seletivas e suaves; hidrogenólise.9. Composição química e análise da madeira: tipos de compostos; macromoléculas e substâncias e baixa massa molar; análise da madeira, amostragem e determinação de inorgânicos e extrativos; preparação de holocelulose; isolação e determinação de celulose, polioses e lignina.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,13 +112,10 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>A avaliação será feita por duas provas (P1 e P2).</t>
+  </si>
+  <si>
     <t>Critério:</t>
-  </si>
-  <si>
-    <t>A avaliação será feita por duas provas (P1 e P2).</t>
-  </si>
-  <si>
-    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota final (NF) será calculada atribuindo-se peso um para a primeira avaliação e peso dois para a segunda avaliação do semestre.
@@ -120,10 +123,19 @@
 Será considerado aprovado o aluno com NF&gt;= 5,0 e 70% de freqüência no curso.</t>
   </si>
   <si>
+    <t>Norma de recuperação:</t>
+  </si>
+  <si>
+    <t>A recuperação será feita por meio de uma prova (PR) para alunos que tenham NF maior ou igual a 3,0 e menor do que 5,0. A nota de recuperação (NR) será calculada pela média simples entre a nota final (NF) e a prova de recuperação (PR). Será considerado aprovado o aluno com NR maior ou igual a 5,0</t>
+  </si>
+  <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de uma prova (PR) para alunos que tenham NF maior ou igual a 3,0 e menor do que 5,0. A nota de recuperação (NR) será calculada pela média simples entre a nota final (NF) e a prova de recuperação (PR). Será considerado aprovado o aluno com NR maior ou igual a 5,0</t>
+    <t>1. LEWIN, M., GOLDSTEIN, I.S. Wood. Structure and Composition, New York: Marcel Dekker, 1991.
+2. FENGEL, D., WEGENER, G. Wood. Chemistry, Ultrastructure, Reactions, Berlin: Walter de Gruyter, 1989.
+3. HON, D.N.-S. Chemical Modification of Lignocellulosic Materials, New York: Marcel Dekker, 1996.
+4. EK, M., GELLERSTEDT, G., HENRIKSSON G. Wood Chemistry and Wood Biotechnology (Volume 1); Pulping Chemistry and Technology (Volume 2). Berlin: Walter de Gruyter, 2009.</t>
   </si>
 </sst>
 </file>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -604,37 +616,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -648,53 +657,64 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
